--- a/assets/generated/model4/ArrivalAtCustomerTime.xlsx
+++ b/assets/generated/model4/ArrivalAtCustomerTime.xlsx
@@ -353,42 +353,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>233</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>236</v>
+        <v>178.3999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>278.1999999999988</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>330.1999999999988</v>
+        <v>180.3999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>229</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>277.1999999999989</v>
+        <v>181.3999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>282.1999999999988</v>
+        <v>186.3999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>342.1999999999998</v>
+        <v>192.3999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/assets/generated/model4/ArrivalAtCustomerTime.xlsx
+++ b/assets/generated/model4/ArrivalAtCustomerTime.xlsx
@@ -353,42 +353,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>178.3999999999996</v>
+        <v>286.5999999999986</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>136</v>
+        <v>189.9999999999988</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>180.3999999999996</v>
+        <v>234.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>126</v>
+        <v>225.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>181.3999999999996</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>186.3999999999996</v>
+        <v>240.1999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>192.3999999999996</v>
+        <v>300.5999999999985</v>
       </c>
     </row>
     <row r="10" spans="1:1">
